--- a/Data/data_countries_appendix.xlsx
+++ b/Data/data_countries_appendix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.moura\Dropbox\EUTAX CRS Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.moura\Dropbox\EUTAX CRS Project\2025_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB6BECC-57B2-4925-A071-EDBA5F2787CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77961370-89A4-447B-9876-BD7694406559}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="22992" windowHeight="9012" activeTab="9" xr2:uid="{2AF89A78-6493-427D-A1A8-A90DFB404280}"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="22992" windowHeight="9012" xr2:uid="{2AF89A78-6493-427D-A1A8-A90DFB404280}"/>
   </bookViews>
   <sheets>
     <sheet name="BEL_BRA" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="77">
   <si>
     <t>Year</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>No tax identification number</t>
-  </si>
-  <si>
-    <t>The list of Offshore Financial Centers (OFCs) is: Andorra, Anguilla, Antigua and Barbuda, Aruba, Austria, Bahamas, Bahrain, Barbados, Belgium, Belize, Bermuda, Cayman Islands, Chile, Cook Islands, Costa Rica, Curaçao, Cyprus, Dominica, Gibraltar, Grenada, Guernsey, Hong Kong, Isle of Man, Jersey, Liberia, Liechtenstein, Luxembourg, Macao, Malaysia, Malta, Marshall Islands, Monaco, Montserrat, Nauru, Panama, Saint Kitts and Nevis, Saint Lucia, Saint Vincent and the Grenadines, Samoa, San Marino, Seychelles, Singapore, Switzerland, Trinidad and Tobago, Turks and Caicos Islands, Uruguay, Vanuatu, British Virgin Islands.</t>
   </si>
   <si>
     <r>
@@ -293,6 +290,12 @@
   </si>
   <si>
     <t>(ZAF) South Africa</t>
+  </si>
+  <si>
+    <t>Asterisk indicates authors' calculations. The list of Offshore Financial Centers (OFCs) is: Andorra, Anguilla, Antigua and Barbuda, Aruba, Austria, Bahamas, Bahrain, Barbados, Belgium, Belize, Bermuda, Cayman Islands, Chile, Cook Islands, Costa Rica, Curaçao, Cyprus, Dominica, Gibraltar, Grenada, Guernsey, Hong Kong, Isle of Man, Jersey, Liberia, Liechtenstein, Luxembourg, Macao, Malaysia, Malta, Marshall Islands, Monaco, Montserrat, Nauru, Panama, Saint Kitts and Nevis, Saint Lucia, Saint Vincent and the Grenadines, Samoa, San Marino, Seychelles, Singapore, Switzerland, Trinidad and Tobago, Turks and Caicos Islands, Uruguay, Vanuatu, British Virgin Islands.</t>
+  </si>
+  <si>
+    <t>Number of account reports</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1009,6 +1012,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1033,12 +1048,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1048,6 +1057,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1057,10 +1072,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1069,15 +1093,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1102,15 +1117,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1125,15 +1149,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1461,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28F9AA2-42CB-4439-B8BF-81BBE6843BCF}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="70" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1581,15 +1596,15 @@
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
@@ -1626,7 +1641,7 @@
     </row>
     <row r="12" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="E12" s="95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1711,7 +1726,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1847,11 +1862,11 @@
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="194" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
+      <c r="D17" s="198" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1872,14 +1887,14 @@
       <c r="A20" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="167"/>
-      <c r="D20" s="162" t="s">
+      <c r="C20" s="171"/>
+      <c r="D20" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="167"/>
+      <c r="E20" s="171"/>
       <c r="I20" s="133"/>
       <c r="J20" s="145"/>
     </row>
@@ -1933,14 +1948,14 @@
       <c r="A25" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="155" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
+      <c r="B25" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1949,15 +1964,15 @@
       <c r="A26" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
       <c r="I26" s="5"/>
     </row>
   </sheetData>
@@ -1980,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C9C4BD-BBF2-4812-B271-6CC71587224E}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2080,15 +2095,15 @@
       <c r="A10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2100,27 +2115,27 @@
     </row>
     <row r="18" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A18" s="151"/>
-      <c r="D18" s="156" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="156"/>
+      <c r="D18" s="160" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="160"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="151"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="157"/>
-      <c r="B20" s="153" t="s">
+      <c r="A20" s="161"/>
+      <c r="B20" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="153" t="s">
+      <c r="C20" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="158" t="s">
+      <c r="D20" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="159"/>
-      <c r="F20" s="153" t="s">
+      <c r="E20" s="163"/>
+      <c r="F20" s="157" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="4"/>
@@ -2128,16 +2143,16 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="157"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
       <c r="D21" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="154"/>
+      <c r="F21" s="158"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2201,9 +2216,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFC63B9-BDC7-4451-868A-2A0F13168C62}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2219,44 +2234,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="158" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="162" t="s">
+      <c r="C1" s="162" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="158" t="s">
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="159"/>
+      <c r="L1" s="163"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="163"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="40" t="s">
+      <c r="A2" s="165"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="155" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="40" t="s">
@@ -2280,560 +2295,776 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="164">
+        <v>20</v>
+      </c>
+      <c r="B3" s="166">
         <v>2017</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="44">
+        <f>C4+C5</f>
+        <v>5352662</v>
+      </c>
+      <c r="D3" s="45">
+        <f t="shared" ref="D3:J3" si="0">D4+D5</f>
+        <v>24136</v>
+      </c>
+      <c r="E3" s="45">
+        <f t="shared" si="0"/>
+        <v>49967</v>
+      </c>
+      <c r="F3" s="46">
+        <f t="shared" si="0"/>
+        <v>17384</v>
+      </c>
+      <c r="G3" s="45">
+        <f>G4+G5</f>
+        <v>354.77135974700002</v>
+      </c>
+      <c r="H3" s="45">
+        <f t="shared" si="0"/>
+        <v>36.565193769000004</v>
+      </c>
+      <c r="I3" s="45">
+        <f t="shared" si="0"/>
+        <v>50.751526306999999</v>
+      </c>
+      <c r="J3" s="45">
+        <f t="shared" si="0"/>
+        <v>39.721713819000001</v>
+      </c>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="180"/>
+      <c r="C4" s="25">
         <v>2803664</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D4" s="100">
         <v>11589</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E4" s="100">
         <v>28907</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F4" s="37">
         <v>9452</v>
       </c>
-      <c r="G3" s="58">
-        <f>55410526467/1000000000</f>
+      <c r="G4" s="107">
         <v>55.410526466999997</v>
       </c>
-      <c r="H3" s="58">
-        <f>8904375148/1000000000</f>
+      <c r="H4" s="107">
         <v>8.9043751479999997</v>
       </c>
-      <c r="I3" s="58">
-        <f>31111625197/1000000000</f>
+      <c r="I4" s="107">
         <v>31.111625196999999</v>
       </c>
-      <c r="J3" s="59">
-        <f>16684568998/1000000000</f>
+      <c r="J4" s="32">
         <v>16.684568998</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K4" s="64">
         <v>0.64817603147863689</v>
       </c>
-      <c r="L3" s="63">
+      <c r="L4" s="65">
         <v>0.22682640258486844</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="36">
+      <c r="B5" s="168"/>
+      <c r="C5" s="25">
         <v>2548998</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D5" s="100">
         <v>12547</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E5" s="100">
         <v>21060</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F5" s="37">
         <v>7932</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G5" s="31">
         <f>299360833280/1000000000</f>
         <v>299.36083328000001</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H5" s="31">
         <f>27660818621/1000000000</f>
         <v>27.660818621000001</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I5" s="31">
         <f>19639901110/1000000000</f>
         <v>19.63990111</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J5" s="32">
         <f>23037144821/1000000000</f>
         <v>23.037144820999998</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K5" s="64">
         <v>0.87173483850384681</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L5" s="65">
         <v>0.36923671000128716</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="164">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="166">
         <v>2018</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C6" s="44">
+        <f>C7+C8</f>
+        <v>6654507</v>
+      </c>
+      <c r="D6" s="45">
+        <f t="shared" ref="D6:J6" si="1">D7+D8</f>
+        <v>35004</v>
+      </c>
+      <c r="E6" s="45">
+        <f t="shared" si="1"/>
+        <v>59871</v>
+      </c>
+      <c r="F6" s="46">
+        <f t="shared" si="1"/>
+        <v>19813</v>
+      </c>
+      <c r="G6" s="45">
+        <f t="shared" si="1"/>
+        <v>256.46883837199999</v>
+      </c>
+      <c r="H6" s="45">
+        <f t="shared" si="1"/>
+        <v>54.696431892</v>
+      </c>
+      <c r="I6" s="45">
+        <f t="shared" si="1"/>
+        <v>76.059874065000002</v>
+      </c>
+      <c r="J6" s="45">
+        <f t="shared" si="1"/>
+        <v>72.211173114000005</v>
+      </c>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="168"/>
+      <c r="C7" s="25">
         <v>3386951</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D7" s="100">
         <v>12965</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E7" s="100">
         <v>29023</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F7" s="37">
         <v>8943</v>
       </c>
-      <c r="G5" s="58">
-        <f>50940056061/1000000000</f>
+      <c r="G7" s="107">
         <v>50.940056061</v>
       </c>
-      <c r="H5" s="58">
-        <f>11783575337/1000000000</f>
+      <c r="H7" s="107">
         <v>11.783575337</v>
       </c>
-      <c r="I5" s="58">
-        <f>49050064466/1000000000</f>
+      <c r="I7" s="107">
         <v>49.050064466000002</v>
       </c>
-      <c r="J5" s="59">
-        <f>16026396986/1000000000</f>
+      <c r="J7" s="32">
         <v>16.026396986000002</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K7" s="64">
         <v>0.65392069795305163</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L7" s="65">
         <v>0.24814501169449149</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="38">
+      <c r="B8" s="167"/>
+      <c r="C8" s="28">
         <v>3267556</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D8" s="38">
         <v>22039</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E8" s="38">
         <v>30848</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F8" s="39">
         <v>10870</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G8" s="33">
         <f>205528782311/1000000000</f>
         <v>205.52878231099999</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H8" s="33">
         <f>42912856555/1000000000</f>
         <v>42.912856554999998</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I8" s="33">
         <f>27009809599/1000000000</f>
         <v>27.009809599</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J8" s="34">
         <f>56184776128/1000000000</f>
         <v>56.184776128000003</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K8" s="66">
         <v>0.87164461572456409</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L8" s="67">
         <v>0.35876517097245303</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="160">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="168">
         <v>2019</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C9" s="25">
+        <f>C10+C11</f>
+        <v>9297736</v>
+      </c>
+      <c r="D9" s="100">
+        <f t="shared" ref="D9:J9" si="2">D10+D11</f>
+        <v>45589</v>
+      </c>
+      <c r="E9" s="100">
+        <f t="shared" si="2"/>
+        <v>63296</v>
+      </c>
+      <c r="F9" s="37">
+        <f t="shared" si="2"/>
+        <v>20490</v>
+      </c>
+      <c r="G9" s="36">
+        <f t="shared" si="2"/>
+        <v>294.48314890500001</v>
+      </c>
+      <c r="H9" s="36">
+        <f t="shared" si="2"/>
+        <v>70.202875727000006</v>
+      </c>
+      <c r="I9" s="36">
+        <f t="shared" si="2"/>
+        <v>54.059447004999996</v>
+      </c>
+      <c r="J9" s="36">
+        <f t="shared" si="2"/>
+        <v>64.116778397000004</v>
+      </c>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="168"/>
+      <c r="C10" s="25">
         <v>6024125</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D10" s="100">
         <v>18474</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E10" s="100">
         <v>32308</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F10" s="37">
         <v>8640</v>
       </c>
-      <c r="G7" s="31">
-        <f>69703632118/1000000000</f>
+      <c r="G10" s="31">
         <v>69.703632118000002</v>
       </c>
-      <c r="H7" s="31">
-        <f>13790575412/1000000000</f>
+      <c r="H10" s="31">
         <v>13.790575412000001</v>
       </c>
-      <c r="I7" s="31">
-        <f>26678064435/1000000000</f>
+      <c r="I10" s="31">
         <v>26.678064435</v>
       </c>
-      <c r="J7" s="32">
-        <f>20974801281/1000000000</f>
+      <c r="J10" s="32">
         <v>20.974801281000001</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K10" s="64">
         <v>0.64150718764559</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L10" s="65">
         <v>0.26412394003363271</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="36">
+      <c r="B11" s="168"/>
+      <c r="C11" s="25">
         <v>3273611</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D11" s="100">
         <v>27115</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E11" s="100">
         <v>30988</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F11" s="37">
         <v>11850</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G11" s="31">
         <f>224779516787/1000000000</f>
         <v>224.77951678700001</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H11" s="31">
         <f>56412300315/1000000000</f>
         <v>56.412300315000003</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I11" s="31">
         <f>27381382570/1000000000</f>
         <v>27.38138257</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J11" s="32">
         <f>43141977116/1000000000</f>
         <v>43.141977116</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K11" s="64">
         <v>0.88192860356509217</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L11" s="65">
         <v>0.40334985197580125</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="164">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="166">
         <v>2020</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C12" s="44">
+        <f>C13+C14</f>
+        <v>9850655</v>
+      </c>
+      <c r="D12" s="45">
+        <f t="shared" ref="D12:J12" si="3">D13+D14</f>
+        <v>54618</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" si="3"/>
+        <v>63355</v>
+      </c>
+      <c r="F12" s="46">
+        <f t="shared" si="3"/>
+        <v>22596</v>
+      </c>
+      <c r="G12" s="45">
+        <f t="shared" si="3"/>
+        <v>307.25913825099997</v>
+      </c>
+      <c r="H12" s="45">
+        <f t="shared" si="3"/>
+        <v>98.184891696000008</v>
+      </c>
+      <c r="I12" s="45">
+        <f t="shared" si="3"/>
+        <v>142.89729627700001</v>
+      </c>
+      <c r="J12" s="45">
+        <f t="shared" si="3"/>
+        <v>73.436284923000002</v>
+      </c>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="168"/>
+      <c r="C13" s="25">
         <v>6539551</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D13" s="100">
         <v>23225</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E13" s="100">
         <v>31714</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F13" s="37">
         <v>9149</v>
       </c>
-      <c r="G9" s="58">
-        <f>65012819551/1000000000</f>
+      <c r="G13" s="107">
         <v>65.012819551000007</v>
       </c>
-      <c r="H9" s="58">
-        <f>15816306096/1000000000</f>
+      <c r="H13" s="107">
         <v>15.816306096</v>
       </c>
-      <c r="I9" s="58">
-        <f>107056899036/1000000000</f>
+      <c r="I13" s="107">
         <v>107.056899036</v>
       </c>
-      <c r="J9" s="59">
-        <f>19114159286/1000000000</f>
+      <c r="J13" s="32">
         <v>19.114159286</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K13" s="64">
         <v>0.6588739371787089</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L13" s="65">
         <v>0.24161584048931353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="161"/>
-      <c r="C10" s="38">
-        <v>3311104</v>
-      </c>
-      <c r="D10" s="38">
-        <v>31393</v>
-      </c>
-      <c r="E10" s="38">
-        <v>31641</v>
-      </c>
-      <c r="F10" s="39">
-        <v>13447</v>
-      </c>
-      <c r="G10" s="33">
-        <f>242246318700/1000000000</f>
-        <v>242.24631869999999</v>
-      </c>
-      <c r="H10" s="33">
-        <f>82368585600/1000000000</f>
-        <v>82.368585600000003</v>
-      </c>
-      <c r="I10" s="33">
-        <f>35840397241/1000000000</f>
-        <v>35.840397240999998</v>
-      </c>
-      <c r="J10" s="34">
-        <f>54322125637/1000000000</f>
-        <v>54.322125636999999</v>
-      </c>
-      <c r="K10" s="66">
-        <v>0.87481707510658013</v>
-      </c>
-      <c r="L10" s="67">
-        <v>0.39582749723553262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="160">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="36">
-        <v>7279979</v>
-      </c>
-      <c r="D11" s="36">
-        <v>25392</v>
-      </c>
-      <c r="E11" s="36">
-        <v>35858</v>
-      </c>
-      <c r="F11" s="37">
-        <v>7279</v>
-      </c>
-      <c r="G11" s="31">
-        <f>78873208020/1000000000</f>
-        <v>78.873208020000007</v>
-      </c>
-      <c r="H11" s="31">
-        <f>15814469206/1000000000</f>
-        <v>15.814469206</v>
-      </c>
-      <c r="I11" s="31">
-        <f>63131224464/1000000000</f>
-        <v>63.131224463999999</v>
-      </c>
-      <c r="J11" s="32">
-        <f>7288327209/1000000000</f>
-        <v>7.2883272090000002</v>
-      </c>
-      <c r="K11" s="64">
-        <v>0.72352141186267049</v>
-      </c>
-      <c r="L11" s="65">
-        <v>0.3683267280568831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="160"/>
-      <c r="C12" s="36">
-        <v>3657407</v>
-      </c>
-      <c r="D12" s="36">
-        <v>36568</v>
-      </c>
-      <c r="E12" s="36">
-        <v>31401</v>
-      </c>
-      <c r="F12" s="37">
-        <v>16042</v>
-      </c>
-      <c r="G12" s="31">
-        <f>260600066847/1000000000</f>
-        <v>260.60006684699999</v>
-      </c>
-      <c r="H12" s="31">
-        <f>104184362478/1000000000</f>
-        <v>104.184362478</v>
-      </c>
-      <c r="I12" s="31">
-        <f>55644547393/1000000000</f>
-        <v>55.644547393000003</v>
-      </c>
-      <c r="J12" s="32">
-        <f>67409790690/1000000000</f>
-        <v>67.409790689999994</v>
-      </c>
-      <c r="K12" s="64">
-        <v>0.95050806309974079</v>
-      </c>
-      <c r="L12" s="65">
-        <v>0.52038326275748226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="164">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="45">
-        <v>7970225</v>
-      </c>
-      <c r="D13" s="45">
-        <v>30438</v>
-      </c>
-      <c r="E13" s="45">
-        <v>44445</v>
-      </c>
-      <c r="F13" s="46">
-        <v>26521</v>
-      </c>
-      <c r="G13" s="58">
-        <f>86915762889/1000000000</f>
-        <v>86.915762889000007</v>
-      </c>
-      <c r="H13" s="58">
-        <f>19915912190/1000000000</f>
-        <v>19.91591219</v>
-      </c>
-      <c r="I13" s="58">
-        <f>84120194031/1000000000</f>
-        <v>84.120194030999997</v>
-      </c>
-      <c r="J13" s="59">
-        <f>10256327030/1000000000</f>
-        <v>10.25632703</v>
-      </c>
-      <c r="K13" s="62">
-        <v>0.78204828715152874</v>
-      </c>
-      <c r="L13" s="63">
-        <v>0.28294297855519318</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="38">
+      <c r="B14" s="167"/>
+      <c r="C14" s="28">
+        <v>3311104</v>
+      </c>
+      <c r="D14" s="38">
+        <v>31393</v>
+      </c>
+      <c r="E14" s="38">
+        <v>31641</v>
+      </c>
+      <c r="F14" s="39">
+        <v>13447</v>
+      </c>
+      <c r="G14" s="33">
+        <f>242246318700/1000000000</f>
+        <v>242.24631869999999</v>
+      </c>
+      <c r="H14" s="33">
+        <f>82368585600/1000000000</f>
+        <v>82.368585600000003</v>
+      </c>
+      <c r="I14" s="33">
+        <f>35840397241/1000000000</f>
+        <v>35.840397240999998</v>
+      </c>
+      <c r="J14" s="34">
+        <f>54322125637/1000000000</f>
+        <v>54.322125636999999</v>
+      </c>
+      <c r="K14" s="66">
+        <v>0.87481707510658013</v>
+      </c>
+      <c r="L14" s="67">
+        <v>0.39582749723553262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="168">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="25">
+        <f>C16+C17</f>
+        <v>10937386</v>
+      </c>
+      <c r="D15" s="100">
+        <f t="shared" ref="D15:J15" si="4">D16+D17</f>
+        <v>61960</v>
+      </c>
+      <c r="E15" s="100">
+        <f t="shared" si="4"/>
+        <v>67259</v>
+      </c>
+      <c r="F15" s="37">
+        <f t="shared" si="4"/>
+        <v>23321</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="4"/>
+        <v>339.47327486699999</v>
+      </c>
+      <c r="H15" s="36">
+        <f t="shared" si="4"/>
+        <v>119.998831684</v>
+      </c>
+      <c r="I15" s="36">
+        <f t="shared" si="4"/>
+        <v>118.775771857</v>
+      </c>
+      <c r="J15" s="36">
+        <f t="shared" si="4"/>
+        <v>74.698117898999996</v>
+      </c>
+      <c r="K15" s="64"/>
+      <c r="L15" s="65"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="168"/>
+      <c r="C16" s="25">
+        <v>7279979</v>
+      </c>
+      <c r="D16" s="100">
+        <v>25392</v>
+      </c>
+      <c r="E16" s="100">
+        <v>35858</v>
+      </c>
+      <c r="F16" s="37">
+        <v>7279</v>
+      </c>
+      <c r="G16" s="31">
+        <v>78.873208020000007</v>
+      </c>
+      <c r="H16" s="31">
+        <v>15.814469206</v>
+      </c>
+      <c r="I16" s="31">
+        <v>63.131224463999999</v>
+      </c>
+      <c r="J16" s="32">
+        <v>7.2883272090000002</v>
+      </c>
+      <c r="K16" s="64">
+        <v>0.72352141186267049</v>
+      </c>
+      <c r="L16" s="65">
+        <v>0.3683267280568831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="168"/>
+      <c r="C17" s="25">
+        <v>3657407</v>
+      </c>
+      <c r="D17" s="100">
+        <v>36568</v>
+      </c>
+      <c r="E17" s="100">
+        <v>31401</v>
+      </c>
+      <c r="F17" s="37">
+        <v>16042</v>
+      </c>
+      <c r="G17" s="31">
+        <f>260600066847/1000000000</f>
+        <v>260.60006684699999</v>
+      </c>
+      <c r="H17" s="31">
+        <f>104184362478/1000000000</f>
+        <v>104.184362478</v>
+      </c>
+      <c r="I17" s="31">
+        <f>55644547393/1000000000</f>
+        <v>55.644547393000003</v>
+      </c>
+      <c r="J17" s="32">
+        <f>67409790690/1000000000</f>
+        <v>67.409790689999994</v>
+      </c>
+      <c r="K17" s="64">
+        <v>0.95050806309974079</v>
+      </c>
+      <c r="L17" s="65">
+        <v>0.52038326275748226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="166">
+        <v>2022</v>
+      </c>
+      <c r="C18" s="44">
+        <f>C19+C20</f>
+        <v>11673238</v>
+      </c>
+      <c r="D18" s="45">
+        <f t="shared" ref="D18:J18" si="5">D19+D20</f>
+        <v>70412</v>
+      </c>
+      <c r="E18" s="45">
+        <f t="shared" si="5"/>
+        <v>172878</v>
+      </c>
+      <c r="F18" s="46">
+        <f t="shared" si="5"/>
+        <v>43829</v>
+      </c>
+      <c r="G18" s="45">
+        <f t="shared" si="5"/>
+        <v>378.66246010200001</v>
+      </c>
+      <c r="H18" s="45">
+        <f t="shared" si="5"/>
+        <v>148.04770672800001</v>
+      </c>
+      <c r="I18" s="45">
+        <f t="shared" si="5"/>
+        <v>143.64595247699998</v>
+      </c>
+      <c r="J18" s="45">
+        <f t="shared" si="5"/>
+        <v>80.624436128999989</v>
+      </c>
+      <c r="K18" s="62"/>
+      <c r="L18" s="63"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="168"/>
+      <c r="C19" s="25">
+        <v>7970225</v>
+      </c>
+      <c r="D19" s="100">
+        <v>30438</v>
+      </c>
+      <c r="E19" s="100">
+        <v>44445</v>
+      </c>
+      <c r="F19" s="37">
+        <v>26521</v>
+      </c>
+      <c r="G19" s="107">
+        <v>86.915762889000007</v>
+      </c>
+      <c r="H19" s="107">
+        <v>19.91591219</v>
+      </c>
+      <c r="I19" s="107">
+        <v>84.120194030999997</v>
+      </c>
+      <c r="J19" s="32">
+        <v>10.25632703</v>
+      </c>
+      <c r="K19" s="64">
+        <v>0.78204828715152874</v>
+      </c>
+      <c r="L19" s="65">
+        <v>0.28294297855519318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="167"/>
+      <c r="C20" s="28">
         <v>3703013</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D20" s="38">
         <v>39974</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E20" s="38">
         <v>128433</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F20" s="39">
         <v>17308</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G20" s="33">
         <f>291746697213/1000000000</f>
         <v>291.746697213</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H20" s="33">
         <f>128131794538/1000000000</f>
         <v>128.13179453800001</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I20" s="33">
         <f>59525758446/1000000000</f>
         <v>59.525758445999998</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J20" s="34">
         <f>70368109099/1000000000</f>
         <v>70.368109098999994</v>
       </c>
-      <c r="K14" s="66">
+      <c r="K20" s="66">
         <v>0.94722955002618026</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L20" s="67">
         <v>0.45430363729370271</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-    </row>
-    <row r="17" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+    </row>
+    <row r="23" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="155" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
-    </row>
-    <row r="18" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B23" s="159" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+    </row>
+    <row r="24" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="155" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
+      <c r="B24" s="159" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="159"/>
+      <c r="M24" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="B23:M23"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
@@ -2850,7 +3081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDA48A1-99D8-448F-B590-7F775678122C}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2877,103 +3108,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="51" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
     </row>
     <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="162" t="s">
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="167"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="171"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="169"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170" t="s">
+      <c r="A3" s="172"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="168" t="s">
+      <c r="E3" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="175" t="s">
+      <c r="F3" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
       <c r="K3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="175" t="s">
+      <c r="M3" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="176"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="180"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="169"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="168"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="168" t="s">
+      <c r="G4" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168" t="s">
+      <c r="H4" s="173"/>
+      <c r="I4" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="173" t="s">
+      <c r="J4" s="175" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="13"/>
@@ -2981,23 +3212,23 @@
       <c r="M4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="168" t="s">
+      <c r="N4" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168" t="s">
+      <c r="O4" s="173"/>
+      <c r="P4" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="173" t="s">
+      <c r="Q4" s="175" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="48" x14ac:dyDescent="0.3">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="172"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="174"/>
       <c r="F5" s="40"/>
       <c r="G5" s="60" t="s">
         <v>12</v>
@@ -3005,8 +3236,8 @@
       <c r="H5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="172"/>
-      <c r="J5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="176"/>
       <c r="K5" s="22"/>
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
@@ -3016,14 +3247,14 @@
       <c r="O5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="174"/>
+      <c r="P5" s="174"/>
+      <c r="Q5" s="176"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="164">
+      <c r="B6" s="166">
         <v>2019</v>
       </c>
       <c r="C6" s="44">
@@ -3063,7 +3294,7 @@
       <c r="A7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="160"/>
+      <c r="B7" s="168"/>
       <c r="C7" s="25">
         <v>60135</v>
       </c>
@@ -3114,7 +3345,7 @@
       <c r="A8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="161"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="28">
         <v>611541</v>
       </c>
@@ -3165,7 +3396,7 @@
       <c r="A9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="164">
+      <c r="B9" s="166">
         <v>2022</v>
       </c>
       <c r="C9" s="44">
@@ -3205,7 +3436,7 @@
       <c r="A10" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="160"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="25">
         <v>114726</v>
       </c>
@@ -3256,7 +3487,7 @@
       <c r="A11" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="161"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="28">
         <v>1011038</v>
       </c>
@@ -3318,82 +3549,82 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="153" t="s">
+      <c r="C14" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="162" t="s">
+      <c r="D14" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="162" t="s">
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="166"/>
-      <c r="M14" s="166"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="167"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="171"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="169"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="170" t="s">
+      <c r="A15" s="172"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="168" t="s">
+      <c r="E15" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="175" t="s">
+      <c r="F15" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="175"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
       <c r="K15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="175" t="s">
+      <c r="M15" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="176"/>
+      <c r="N15" s="179"/>
+      <c r="O15" s="179"/>
+      <c r="P15" s="179"/>
+      <c r="Q15" s="180"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="169"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="168"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="173"/>
       <c r="F16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="168" t="s">
+      <c r="G16" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168" t="s">
+      <c r="H16" s="173"/>
+      <c r="I16" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="173" t="s">
+      <c r="J16" s="175" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="13"/>
@@ -3401,23 +3632,23 @@
       <c r="M16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="168" t="s">
+      <c r="N16" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="168"/>
-      <c r="P16" s="168" t="s">
+      <c r="O16" s="173"/>
+      <c r="P16" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="173" t="s">
+      <c r="Q16" s="175" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="48" x14ac:dyDescent="0.3">
-      <c r="A17" s="154"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="172"/>
+      <c r="A17" s="158"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="174"/>
       <c r="F17" s="40"/>
       <c r="G17" s="60" t="s">
         <v>12</v>
@@ -3425,8 +3656,8 @@
       <c r="H17" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="172"/>
-      <c r="J17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="176"/>
       <c r="K17" s="22"/>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
@@ -3436,14 +3667,14 @@
       <c r="O17" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="172"/>
-      <c r="Q17" s="174"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="176"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="164">
+      <c r="B18" s="166">
         <v>2019</v>
       </c>
       <c r="C18" s="44">
@@ -3490,7 +3721,7 @@
       <c r="A19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="160"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="25">
         <v>60135</v>
       </c>
@@ -3548,7 +3779,7 @@
       <c r="A20" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="161"/>
+      <c r="B20" s="167"/>
       <c r="C20" s="28">
         <v>611541</v>
       </c>
@@ -3606,7 +3837,7 @@
       <c r="A21" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="164">
+      <c r="B21" s="166">
         <v>2022</v>
       </c>
       <c r="C21" s="44">
@@ -3653,7 +3884,7 @@
       <c r="A22" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="160"/>
+      <c r="B22" s="168"/>
       <c r="C22" s="25">
         <v>114726</v>
       </c>
@@ -3711,7 +3942,7 @@
       <c r="A23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="161"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="28">
         <v>1011038</v>
       </c>
@@ -3795,24 +4026,24 @@
       <c r="A25" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="155"/>
-      <c r="Q25" s="155"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="159"/>
+      <c r="P25" s="159"/>
+      <c r="Q25" s="159"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
@@ -3824,6 +4055,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
@@ -3840,26 +4091,6 @@
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.43333333333333335" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3873,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BBCDAA-0398-478A-B39F-83F5BF6F6A13}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3956,7 +4187,7 @@
       <c r="A5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="177">
+      <c r="B5" s="181">
         <v>2022</v>
       </c>
       <c r="C5" s="56">
@@ -3973,7 +4204,7 @@
       <c r="A6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="175"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="52">
         <v>504653</v>
       </c>
@@ -3986,7 +4217,7 @@
       <c r="A7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="178"/>
+      <c r="B7" s="182"/>
       <c r="C7" s="53">
         <v>4903509</v>
       </c>
@@ -4006,38 +4237,38 @@
       <c r="A10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
     </row>
     <row r="11" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
     </row>
     <row r="14" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="D14" s="179" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
+      <c r="D14" s="183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
@@ -4137,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3C9218-BBD9-43E2-8AD4-4A0508FBB8C7}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4157,78 +4388,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="166"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="162" t="s">
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="170" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="170"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="153" t="s">
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="157" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
       <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="168" t="s">
+      <c r="E2" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="168" t="s">
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="168" t="s">
+      <c r="J2" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="173" t="s">
+      <c r="K2" s="175" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="168" t="s">
+      <c r="M2" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="175" t="s">
+      <c r="N2" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="169"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="172"/>
     </row>
     <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="154"/>
-      <c r="B3" s="154"/>
+      <c r="A3" s="158"/>
+      <c r="B3" s="158"/>
       <c r="C3" s="22"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40" t="s">
@@ -4243,11 +4474,11 @@
       <c r="H3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="176"/>
       <c r="L3" s="22"/>
-      <c r="M3" s="172"/>
+      <c r="M3" s="174"/>
       <c r="N3" s="40" t="s">
         <v>12</v>
       </c>
@@ -4260,13 +4491,13 @@
       <c r="Q3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="154"/>
+      <c r="R3" s="158"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="160">
+      <c r="B4" s="168">
         <v>2022</v>
       </c>
       <c r="C4" s="25">
@@ -4322,7 +4553,7 @@
       <c r="A5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="161"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="28">
         <v>2137444</v>
       </c>
@@ -4376,25 +4607,25 @@
       <c r="A8" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="155"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="159"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -4424,7 +4655,7 @@
     </row>
     <row r="15" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
       <c r="I15" s="96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -4544,8 +4775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C613DE-6A4E-494A-8527-B97D7DF70FE1}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:I15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4566,57 +4797,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="162" t="s">
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="167"/>
-      <c r="J1" s="162" t="s">
+      <c r="I1" s="171"/>
+      <c r="J1" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="167"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="171"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="169"/>
-      <c r="B2" s="170" t="s">
+      <c r="A2" s="172"/>
+      <c r="B2" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="168" t="s">
+      <c r="C2" s="186"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="170" t="s">
+      <c r="F2" s="173"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="182"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="168" t="s">
+      <c r="K2" s="186"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="168"/>
-      <c r="O2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="175"/>
     </row>
     <row r="3" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="154"/>
+      <c r="A3" s="158"/>
       <c r="B3" s="106" t="s">
         <v>12</v>
       </c>
@@ -4882,29 +5113,29 @@
       <c r="A12" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
     </row>
     <row r="15" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="G15" s="156" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
+      <c r="G15" s="160" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K16" s="145"/>
@@ -4912,29 +5143,29 @@
       <c r="M16" s="145"/>
     </row>
     <row r="17" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="153" t="s">
+      <c r="A17" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="162" t="s">
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="167"/>
-      <c r="G17" s="162" t="s">
+      <c r="F17" s="171"/>
+      <c r="G17" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="166"/>
-      <c r="I17" s="167"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="171"/>
       <c r="K17" s="145"/>
       <c r="L17" s="133"/>
       <c r="M17" s="145"/>
     </row>
     <row r="18" spans="1:13" s="145" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="154"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="143" t="s">
         <v>12</v>
       </c>
@@ -5168,6 +5399,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="B12:O12"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="H1:I2"/>
@@ -5177,11 +5413,6 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1" display="https://www.nta.go.jp/information/release/ " xr:uid="{0C85B490-E985-484C-B07B-4E6F3A380C79}"/>
@@ -5198,7 +5429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0084F3-17DA-4171-82F9-2CC4C513DC3C}">
   <dimension ref="A4:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -5331,7 +5562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954B3DB9-C6C0-4069-A07B-748C51CBFC9C}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="85" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -5357,73 +5588,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="191" t="s">
+      <c r="C1" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="192"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="191" t="s">
+      <c r="D1" s="188"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="192"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="191" t="s">
+      <c r="G1" s="188"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="192"/>
-      <c r="K1" s="193"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="189"/>
       <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="184" t="s">
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="185"/>
-      <c r="F2" s="184" t="s">
+      <c r="E2" s="191"/>
+      <c r="F2" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="184" t="s">
+      <c r="G2" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="185"/>
-      <c r="I2" s="186" t="s">
+      <c r="H2" s="191"/>
+      <c r="I2" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="184" t="s">
+      <c r="J2" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="185"/>
+      <c r="K2" s="191"/>
       <c r="L2" s="110"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="169"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="184"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="190"/>
       <c r="D3" s="110" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="184"/>
+      <c r="F3" s="190"/>
       <c r="G3" s="110" t="s">
         <v>63</v>
       </c>
       <c r="H3" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="187"/>
+      <c r="I3" s="194"/>
       <c r="J3" s="112" t="s">
         <v>63</v>
       </c>
@@ -5436,7 +5667,7 @@
       <c r="A4" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="188">
+      <c r="B4" s="195">
         <v>2016</v>
       </c>
       <c r="C4" s="115">
@@ -5472,7 +5703,7 @@
       <c r="A5" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="189"/>
+      <c r="B5" s="196"/>
       <c r="C5" s="122">
         <v>3695</v>
       </c>
@@ -5506,7 +5737,7 @@
       <c r="A6" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="190">
+      <c r="B6" s="197">
         <v>2017</v>
       </c>
       <c r="C6" s="120">
@@ -5542,7 +5773,7 @@
       <c r="A7" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="190"/>
+      <c r="B7" s="197"/>
       <c r="C7" s="120">
         <v>37014</v>
       </c>
@@ -5576,7 +5807,7 @@
       <c r="A8" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="188">
+      <c r="B8" s="195">
         <v>2018</v>
       </c>
       <c r="C8" s="115">
@@ -5612,7 +5843,7 @@
       <c r="A9" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="196"/>
       <c r="C9" s="122">
         <v>89057</v>
       </c>
@@ -5646,7 +5877,7 @@
       <c r="A10" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="188">
+      <c r="B10" s="195">
         <v>2019</v>
       </c>
       <c r="C10" s="115">
@@ -5682,7 +5913,7 @@
       <c r="A11" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="189"/>
+      <c r="B11" s="196"/>
       <c r="C11" s="122">
         <v>86805</v>
       </c>
@@ -5716,7 +5947,7 @@
       <c r="A12" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="190">
+      <c r="B12" s="197">
         <v>2020</v>
       </c>
       <c r="C12" s="120">
@@ -5752,7 +5983,7 @@
       <c r="A13" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="190"/>
+      <c r="B13" s="197"/>
       <c r="C13" s="120">
         <v>92066</v>
       </c>
@@ -5786,7 +6017,7 @@
       <c r="A14" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="188">
+      <c r="B14" s="195">
         <v>2021</v>
       </c>
       <c r="C14" s="115">
@@ -5822,7 +6053,7 @@
       <c r="A15" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="189"/>
+      <c r="B15" s="196"/>
       <c r="C15" s="122">
         <v>98741</v>
       </c>
@@ -5856,7 +6087,7 @@
       <c r="A16" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="188">
+      <c r="B16" s="195">
         <v>2022</v>
       </c>
       <c r="C16" s="115">
@@ -5892,7 +6123,7 @@
       <c r="A17" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="189"/>
+      <c r="B17" s="196"/>
       <c r="C17" s="122">
         <v>98095</v>
       </c>
@@ -5945,36 +6176,36 @@
       <c r="A20" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="183" t="s">
+      <c r="B20" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="183"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="192"/>
+      <c r="K20" s="192"/>
       <c r="L20" s="137"/>
     </row>
     <row r="21" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="183" t="s">
+      <c r="B21" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="192"/>
       <c r="L21" s="137"/>
     </row>
     <row r="22" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6189,14 +6420,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="B20:K20"/>
     <mergeCell ref="B21:K21"/>
     <mergeCell ref="G2:H2"/>
@@ -6209,6 +6432,14 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.80392156862745101" bottom="8.3333333333333332E-3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
